--- a/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
+++ b/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC870A-5321-4B9D-A890-B4E97F43B684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC8A26-6497-424F-9D76-A290D41E5F96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1644" windowWidth="22104" windowHeight="16404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="24620" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一次迭代" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过文法的数据结构生成I项目集规范族(Family)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +328,6 @@
   </si>
   <si>
     <t>周潜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,6 +383,107 @@
   <si>
     <t>1.常佳鑫
 2.王浩旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据语法分析结果和文法，生成五元式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据语法分析结果、文法，和代码行数，生成程序运行到所选行时的符号表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五元式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点调试-符号表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法分析成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五元式生成成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出正确的五元式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出正确的符号表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢帅宇
+王浩旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未通过 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C002-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改测试程序
+2.再次进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环运行测试时出现内存不足的错误，在Semantic.executeFiveParam()中的PCs变量所指向的堆会无限增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30aa898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘=’指令的五元式无法显示正确行号；此外，下阶段应完善语义分析程序以支持更多代码结构。测试结果保存在doc.semantic_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜测是由于语法分析结果parserResult在语义分析中被修改，于是在循环内部进行语法分析，每次将新的parserResult输入语义分析程序。测试结果保存在doc.debug_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入提前编写的程序doc.semanticCode_12-14
+2.输入不同的代码行数
+3.对每个行数运行测试，输出符号表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入提前编写的程序doc.semanticCode_12-14
+2.运行测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,10 +564,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -808,32 +914,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.77734375" style="1"/>
-    <col min="12" max="12" width="10.44140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="10.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="3"/>
+    <col min="16" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,17 +986,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="47.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -921,15 +1027,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="50.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="10"/>
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
@@ -958,28 +1064,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="41.5" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -998,20 +1104,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="41.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1028,15 +1134,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="10"/>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1065,11 +1171,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="39" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1106,15 +1212,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="28.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1148,15 +1254,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="37.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1188,112 +1294,246 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:15" ht="30">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="8">
+        <v>43756</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="9">
+      <c r="M11" s="8">
         <v>43756</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>71</v>
+      <c r="O11" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="1" t="s">
+    <row r="12" spans="1:15" ht="45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="9">
+      <c r="M12" s="8">
         <v>43756</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>78</v>
+      <c r="N12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="72" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="9">
-        <v>43756</v>
-      </c>
-      <c r="N12" s="1" t="s">
+    <row r="13" spans="1:15" ht="40" customHeight="1">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>85</v>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="8">
+        <v>43777</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="47" customHeight="1">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="8">
+        <v>43777</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="53" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="8">
+        <v>43777</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="D8:D9"/>
@@ -1317,7 +1557,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,7 +1570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
+++ b/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC8A26-6497-424F-9D76-A290D41E5F96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357A1E2-6895-42BA-B344-3C3BD718ADE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="24620" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="24624" windowHeight="16404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一次迭代" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,9 +202,6 @@
   </si>
   <si>
     <t>9月27日晚上</t>
-  </si>
-  <si>
-    <t>9月27日晚上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,16 +273,6 @@
   </si>
   <si>
     <t>A007</t>
-  </si>
-  <si>
-    <t>1.输入提前编写的大段符合词法的测试程序（interpret-test.cpp）
-2.提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.输入提前编写的大段不符合词法的测试程序（interpret-test-wrong.cpp）
-2.提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大段赋值四则运算代码输入（interpret-test.cpp中的count_test函数）就会造成空指针错误，单独某一行输入则不会</t>
@@ -484,6 +464,16 @@
   <si>
     <t>1.输入提前编写的程序doc.semanticCode_12-14
 2.运行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入提前编写的大段符合词法的测试程序（interpret-test_4-5）
+2.提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入提前编写的大段不符合词法的测试程序（interpret-test-wrong_6）
+2.提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,30 +906,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="12" width="10.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="10.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="3"/>
+    <col min="16" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -986,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="47.5" customHeight="1">
+    <row r="2" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1021,13 +1011,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="50.5" customHeight="1">
+    <row r="3" spans="1:15" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1058,13 +1048,13 @@
         <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="41.5" customHeight="1">
+    <row r="4" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1080,7 +1070,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>28</v>
@@ -1094,8 +1084,8 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>40</v>
+      <c r="M4" s="8">
+        <v>43735</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>34</v>
@@ -1104,7 +1094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="41.5" customHeight="1">
+    <row r="5" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1124,17 +1114,17 @@
       <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
+      <c r="M5" s="8">
+        <v>43735</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="63" customHeight="1">
+    <row r="6" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1150,7 +1140,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>37</v>
@@ -1164,37 +1154,37 @@
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>40</v>
+      <c r="M6" s="8">
+        <v>43735</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1">
+    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
@@ -1205,38 +1195,38 @@
       <c r="L7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>40</v>
+      <c r="M7" s="8">
+        <v>43735</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.75" customHeight="1">
+    <row r="8" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
@@ -1247,36 +1237,36 @@
       <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>40</v>
+      <c r="M8" s="8">
+        <v>43735</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="37.75" customHeight="1">
+    <row r="9" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
@@ -1287,150 +1277,150 @@
       <c r="L9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>40</v>
+      <c r="M9" s="8">
+        <v>43735</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="M10" s="8">
         <v>43756</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M11" s="8">
         <v>43756</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45">
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M12" s="8">
         <v>43756</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40" customHeight="1">
+    <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>22</v>
@@ -1439,73 +1429,73 @@
         <v>21</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M13" s="8">
         <v>43777</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="47" customHeight="1">
+    <row r="14" spans="1:15" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M14" s="8">
         <v>43777</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="53" customHeight="1">
+    <row r="15" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="1" t="s">
@@ -1515,25 +1505,20 @@
         <v>21</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M15" s="8">
         <v>43777</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="D8:D9"/>
@@ -1544,6 +1529,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1557,7 +1547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,7 +1560,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
+++ b/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357A1E2-6895-42BA-B344-3C3BD718ADE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C92477-3C29-467D-9757-A97FCED6C18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="24624" windowHeight="16404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,12 +476,184 @@
 2.提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统正常启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在网页上输入源代码，运行并调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正确结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行通过，调试未通过：参数无法为变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行成功，调试未通过：未找出错误原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifelse分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行通过，调试未通过：else代码块内调试出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析出函数调用语法错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数调用错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回语法分析错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析出词法错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词法错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回词法分析错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析出语法错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型不匹配错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析出语义错误-类型不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回语义分析错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“float b = 2” 和 “本应返回float的函数 return int 值”时出现异常：int无法转换为float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入调用在声明之前的错误源代码，运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用词错误的代码，运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入语法错误的代码，运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入类型不匹配错误的代码，运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦英然
+谢帅宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>D009</t>
+  </si>
+  <si>
+    <t>总体测试
+：
+：
+测试用代码保存在code中，以test开头的txt文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0683cb</t>
+  </si>
+  <si>
+    <t>d0683cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,8 +676,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +714,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -528,10 +739,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,12 +783,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -904,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -980,13 +1215,13 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1021,11 +1256,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="11"/>
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1058,24 +1293,24 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1098,16 +1333,16 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1128,11 +1363,11 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1165,7 +1400,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1206,11 +1441,11 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1248,11 +1483,11 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1288,7 +1523,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1326,7 +1561,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
@@ -1362,7 +1597,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>84</v>
       </c>
@@ -1401,7 +1636,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1445,23 +1680,23 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="11" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1487,17 +1722,17 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1517,8 +1752,385 @@
         <v>95</v>
       </c>
     </row>
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" s="8">
+        <v>43784</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" s="8">
+        <v>43785</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="8">
+        <v>43786</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="8">
+        <v>43787</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="8">
+        <v>43788</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="8">
+        <v>43789</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="8">
+        <v>43790</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="8">
+        <v>43791</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="8">
+        <v>43792</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="D8:D9"/>
@@ -1529,11 +2141,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
+++ b/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C92477-3C29-467D-9757-A97FCED6C18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857AC0C-6570-4CD5-9ED2-17774C0549FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="24624" windowHeight="16404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,12 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,6 +790,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1215,13 +1215,13 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1256,11 +1256,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="14"/>
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1293,24 +1293,24 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1333,16 +1333,16 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1363,11 +1363,11 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="14"/>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1441,11 +1441,11 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1483,11 +1483,11 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1561,7 +1561,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>84</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1680,23 +1680,23 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="14" t="s">
         <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="14" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1722,17 +1722,17 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="14" t="s">
         <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1777,7 +1777,7 @@
       <c r="I16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="11" t="s">
         <v>112</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1800,7 +1800,7 @@
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1" t="s">
         <v>140</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="I17" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="11" t="s">
         <v>112</v>
       </c>
       <c r="K17" s="10" t="s">
@@ -1829,7 +1829,7 @@
         <v>150</v>
       </c>
       <c r="M17" s="8">
-        <v>43785</v>
+        <v>43784</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>114</v>
@@ -1842,7 +1842,7 @@
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="10" t="s">
         <v>141</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="11" t="s">
         <v>112</v>
       </c>
       <c r="K18" s="10" t="s">
@@ -1871,7 +1871,7 @@
         <v>149</v>
       </c>
       <c r="M18" s="8">
-        <v>43786</v>
+        <v>43784</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>117</v>
@@ -1884,7 +1884,7 @@
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="10" t="s">
         <v>142</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="I19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>119</v>
       </c>
       <c r="K19" s="10" t="s">
@@ -1913,7 +1913,7 @@
         <v>149</v>
       </c>
       <c r="M19" s="8">
-        <v>43787</v>
+        <v>43784</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>120</v>
@@ -1926,7 +1926,7 @@
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="10" t="s">
         <v>143</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="I20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="12" t="s">
         <v>119</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -1955,7 +1955,7 @@
         <v>149</v>
       </c>
       <c r="M20" s="8">
-        <v>43788</v>
+        <v>43784</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>120</v>
@@ -1968,7 +1968,7 @@
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="10" t="s">
         <v>144</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="I21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="K21" s="10" t="s">
@@ -1997,7 +1997,7 @@
         <v>149</v>
       </c>
       <c r="M21" s="8">
-        <v>43789</v>
+        <v>43784</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>95</v>
@@ -2007,7 +2007,7 @@
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="10" t="s">
         <v>145</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="I22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>124</v>
       </c>
       <c r="K22" s="10" t="s">
@@ -2036,7 +2036,7 @@
         <v>149</v>
       </c>
       <c r="M22" s="8">
-        <v>43790</v>
+        <v>43784</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>95</v>
@@ -2046,7 +2046,7 @@
       <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="10" t="s">
         <v>146</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="I23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="13" t="s">
         <v>124</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2075,7 +2075,7 @@
         <v>149</v>
       </c>
       <c r="M23" s="8">
-        <v>43791</v>
+        <v>43784</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>95</v>
@@ -2085,7 +2085,7 @@
       <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="10" t="s">
         <v>147</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="I24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="11" t="s">
         <v>112</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -2114,7 +2114,7 @@
         <v>149</v>
       </c>
       <c r="M24" s="8">
-        <v>43792</v>
+        <v>43784</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>134</v>
@@ -2125,11 +2125,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B7:B9"/>
@@ -2141,6 +2136,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
+++ b/interpret/src/main/resources/static/doc/模块功能测试表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857AC0C-6570-4CD5-9ED2-17774C0549FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819B6606-9722-4562-8320-68504303FBAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="24624" windowHeight="16404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>返回token序列List&lt;Token&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,15 +189,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入不符合词法的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接收代码字符串String，进行词法分析，返回token序列List&lt;Token&gt;，或提示非法字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月27日晚上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,6 +634,14 @@
   </si>
   <si>
     <t>d0683cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不符合词法的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入符合词法的单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1199,13 +1195,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -1222,13 +1218,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -1237,19 +1233,19 @@
         <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="M2" s="8">
+        <v>43735</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,31 +1258,31 @@
       </c>
       <c r="D3" s="14"/>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="M3" s="8">
+        <v>43735</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,38 +1291,38 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="M4" s="8">
         <v>43735</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,7 +1331,7 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
@@ -1344,19 +1340,19 @@
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="8">
         <v>43735</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,35 +1361,35 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="14"/>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="8">
         <v>43735</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,40 +1397,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="8">
         <v>43735</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,40 +1439,40 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="8">
         <v>43735</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,38 +1481,38 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="8">
         <v>43735</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1524,37 +1520,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="8">
         <v>43756</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1563,34 +1559,34 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M11" s="8">
         <v>43756</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
@@ -1599,37 +1595,37 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M12" s="8">
         <v>43756</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,43 +1633,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M13" s="8">
         <v>43777</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,40 +1678,40 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M14" s="8">
         <v>43777</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,32 +1720,32 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L15" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M15" s="8">
         <v>43777</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1757,43 +1753,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="J16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M16" s="8">
         <v>43784</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1802,40 +1798,40 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="K17" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M17" s="8">
         <v>43784</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1844,40 +1840,40 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="K18" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M18" s="8">
         <v>43784</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1886,40 +1882,40 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M19" s="8">
         <v>43784</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1928,40 +1924,40 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" s="8">
         <v>43784</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -1970,37 +1966,37 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J21" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" s="8">
         <v>43784</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -2009,37 +2005,37 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="L22" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M22" s="8">
         <v>43784</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -2048,37 +2044,37 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="M23" s="8">
         <v>43784</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -2087,44 +2083,49 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="K24" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M24" s="8">
         <v>43784</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B7:B9"/>
@@ -2136,11 +2137,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
